--- a/IP-Plan.xlsx
+++ b/IP-Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\microsoft\CentOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\microsoft\CentOS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ms-ubuntu002</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>marathon_1</t>
+  </si>
+  <si>
+    <t>rabbit_1</t>
+  </si>
+  <si>
+    <t>172.21.1.51</t>
+  </si>
+  <si>
+    <t>rabbit_2</t>
+  </si>
+  <si>
+    <t>172.21.1.52</t>
   </si>
 </sst>
 </file>
@@ -459,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,40 +600,56 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>6</v>
+      <c r="B16" t="s">
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
+      <c r="B17" t="s">
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>26</v>
       </c>
     </row>

--- a/IP-Plan.xlsx
+++ b/IP-Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ms-ubuntu002</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>172.21.1.52</t>
+  </si>
+  <si>
+    <t>gitlab-01</t>
+  </si>
+  <si>
+    <t>172.21.1.61</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,40 +622,48 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>6</v>
+      <c r="B18" t="s">
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>26</v>
       </c>
     </row>

--- a/IP-Plan.xlsx
+++ b/IP-Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>ms-ubuntu002</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>172.21.1.61</t>
+  </si>
+  <si>
+    <t>172.21.1.62</t>
+  </si>
+  <si>
+    <t>registry-01</t>
   </si>
 </sst>
 </file>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,40 +636,48 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>6</v>
+      <c r="B19" t="s">
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>26</v>
       </c>
     </row>

--- a/IP-Plan.xlsx
+++ b/IP-Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ms-ubuntu002</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>registry-01</t>
+  </si>
+  <si>
+    <t>ms-mesosslv001</t>
+  </si>
+  <si>
+    <t>172.21.1.71</t>
   </si>
 </sst>
 </file>
@@ -483,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,6 +687,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IP-Plan.xlsx
+++ b/IP-Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>ms-ubuntu002</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>172.21.1.71</t>
+  </si>
+  <si>
+    <t>ms-win2016</t>
+  </si>
+  <si>
+    <t>172.21.1.81</t>
   </si>
 </sst>
 </file>
@@ -489,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,6 +701,14 @@
         <v>48</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IP-Plan.xlsx
+++ b/IP-Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>ms-ubuntu002</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>172.21.1.81</t>
+  </si>
+  <si>
+    <t>tomcat-01</t>
+  </si>
+  <si>
+    <t>172.21.1.91</t>
   </si>
 </sst>
 </file>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,161 +557,169 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>50</v>
       </c>
     </row>

--- a/IP-Plan.xlsx
+++ b/IP-Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>ms-ubuntu002</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>172.21.1.91</t>
+  </si>
+  <si>
+    <t>ms-runner001</t>
+  </si>
+  <si>
+    <t>172.21.1.101</t>
   </si>
 </sst>
 </file>
@@ -501,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,20 +571,20 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -721,6 +727,14 @@
       </c>
       <c r="C26" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/IP-Plan.xlsx
+++ b/IP-Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>ms-ubuntu002</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>172.21.1.101</t>
+  </si>
+  <si>
+    <t>photo-01</t>
+  </si>
+  <si>
+    <t>172.21.1.95</t>
   </si>
 </sst>
 </file>
@@ -507,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,161 +585,169 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>54</v>
       </c>
     </row>

--- a/IP-Plan.xlsx
+++ b/IP-Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>ms-ubuntu002</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>172.21.1.95</t>
+  </si>
+  <si>
+    <t>gradle-01</t>
+  </si>
+  <si>
+    <t>172.21.1.96</t>
+  </si>
+  <si>
+    <t>yarnapp-01</t>
+  </si>
+  <si>
+    <t>172.21.1.97</t>
   </si>
 </sst>
 </file>
@@ -513,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,161 +605,177 @@
         <v>56</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>54</v>
       </c>
     </row>

--- a/IP-Plan.xlsx
+++ b/IP-Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>ms-ubuntu002</t>
   </si>
@@ -207,6 +207,27 @@
   </si>
   <si>
     <t>172.21.1.97</t>
+  </si>
+  <si>
+    <t>ms-k8smas001</t>
+  </si>
+  <si>
+    <t>172.21.1.35</t>
+  </si>
+  <si>
+    <t>ms-k8snode001</t>
+  </si>
+  <si>
+    <t>172.21.1.40</t>
+  </si>
+  <si>
+    <t>ms-sys002</t>
+  </si>
+  <si>
+    <t>172.21.3.5</t>
+  </si>
+  <si>
+    <t>192.168.1.60</t>
   </si>
 </sst>
 </file>
@@ -525,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,6 +557,7 @@
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -779,6 +801,33 @@
         <v>54</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
